--- a/sequences/03_retrieval_3.xlsx
+++ b/sequences/03_retrieval_3.xlsx
@@ -55,580 +55,580 @@
     <t>type4</t>
   </si>
   <si>
-    <t>melden</t>
-  </si>
-  <si>
-    <t>öffnen</t>
+    <t>binden</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>meinen</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
+    <t>schütteln</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>kratzen</t>
+  </si>
+  <si>
+    <t>treffen</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>fühlen</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>stoppen</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>fällen</t>
+  </si>
+  <si>
+    <t>kaufen</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>klingeln</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>regnen</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>krachen</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>dauern</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>stürzen</t>
+  </si>
+  <si>
+    <t>läuten</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>merken</t>
+  </si>
+  <si>
+    <t>süßen</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>flüchten</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>leisten</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>wählen</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>schaden</t>
+  </si>
+  <si>
+    <t>träumen</t>
+  </si>
+  <si>
+    <t>ruhen</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>stellen</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>fordern</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>schicken</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>zählen</t>
+  </si>
+  <si>
+    <t>fesseln</t>
+  </si>
+  <si>
+    <t>wehen</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>schämen</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>warten</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>laufen</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>pissen</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>herzen</t>
+  </si>
+  <si>
+    <t>zeigen</t>
   </si>
   <si>
     <t>gelten</t>
   </si>
   <si>
-    <t>bauen</t>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>knurren</t>
+  </si>
+  <si>
+    <t>schneiden</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>schwimmen</t>
+  </si>
+  <si>
+    <t>bleiben</t>
+  </si>
+  <si>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>drucken</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>füttern</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>messen</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>klappen</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>wetten</t>
+  </si>
+  <si>
+    <t>starren</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>locken</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>danken</t>
+  </si>
+  <si>
+    <t>bieten</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>wiegen</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>scheiden</t>
+  </si>
+  <si>
+    <t>stärken</t>
+  </si>
+  <si>
+    <t>fassen</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>leiden</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>wahren</t>
+  </si>
+  <si>
+    <t>schließen</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>löschen</t>
+  </si>
+  <si>
+    <t>rauben</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>füllen</t>
+  </si>
+  <si>
+    <t>nerven</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>gnaden</t>
+  </si>
+  <si>
+    <t>opfern</t>
+  </si>
+  <si>
+    <t>garen</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>flüstern</t>
+  </si>
+  <si>
+    <t>zeugen</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>ächzen</t>
+  </si>
+  <si>
+    <t>kichern</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>stoßen</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>wohnen</t>
   </si>
   <si>
     <t>gründen</t>
   </si>
   <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>putzen</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>stammen</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>sorgen</t>
-  </si>
-  <si>
-    <t>lenken</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>nähern</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>faulen</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>albern</t>
-  </si>
-  <si>
-    <t>hacken</t>
+    <t>knarren</t>
   </si>
   <si>
     <t>hauen</t>
   </si>
   <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>brauen</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>werden</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>scheinen</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>laden</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>leugnen</t>
-  </si>
-  <si>
-    <t>schließen</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>seufzen</t>
-  </si>
-  <si>
-    <t>messen</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>schaden</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>schulden</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>lösen</t>
-  </si>
-  <si>
-    <t>lesen</t>
-  </si>
-  <si>
-    <t>boxen</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>kümmern</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>merken</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>triefen</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>spannen</t>
-  </si>
-  <si>
-    <t>stehen</t>
-  </si>
-  <si>
-    <t>doppeln</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>eignen</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>werfen</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>ahnen</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>bellen</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>spinnen</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>platzen</t>
-  </si>
-  <si>
-    <t>spuren</t>
-  </si>
-  <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>zielen</t>
-  </si>
-  <si>
-    <t>daten</t>
-  </si>
-  <si>
-    <t>tragen</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>grüßen</t>
-  </si>
-  <si>
-    <t>drehen</t>
-  </si>
-  <si>
-    <t>bremsen</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>sitzen</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>sichern</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>ruhen</t>
-  </si>
-  <si>
-    <t>tropfen</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>flammen</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>kosten</t>
-  </si>
-  <si>
-    <t>treiben</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>pflanzen</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>schlampen</t>
-  </si>
-  <si>
-    <t>gleichen</t>
-  </si>
-  <si>
-    <t>regen</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>schwören</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>wagen</t>
-  </si>
-  <si>
-    <t>polen</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>hängen</t>
-  </si>
-  <si>
-    <t>rühren</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>drucken</t>
-  </si>
-  <si>
-    <t>osten</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>ächzen</t>
-  </si>
-  <si>
-    <t>widmen</t>
-  </si>
-  <si>
-    <t>schämen</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>klagen</t>
-  </si>
-  <si>
-    <t>greifen</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>wärmen</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>suchen</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>graben</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>ärgern</t>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>wundern</t>
   </si>
   <si>
     <t>N/A</t>
